--- a/Notenrechner Codereview SWE 2.xlsx
+++ b/Notenrechner Codereview SWE 2.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E409084-6A9A-4ABC-9C71-F7448134FDA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notenrechner" sheetId="2" r:id="rId1"/>
@@ -14,7 +15,17 @@
     <definedName name="Studenten">#REF!</definedName>
     <definedName name="TabelleNotenTest">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -135,9 +146,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -318,7 +329,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -352,8 +363,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -369,10 +380,10 @@
     <cellStyle name="Eingabe" xfId="3" builtinId="20"/>
     <cellStyle name="Ergebnis" xfId="5" builtinId="25"/>
     <cellStyle name="Komma" xfId="8" builtinId="3"/>
-    <cellStyle name="Normal_Noten" xfId="6"/>
+    <cellStyle name="Normal_Noten" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Notiz" xfId="4" builtinId="10"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="7"/>
+    <cellStyle name="Standard 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Überschrift 1" xfId="1" builtinId="16"/>
     <cellStyle name="Überschrift 2" xfId="2" builtinId="17"/>
   </cellStyles>
@@ -390,7 +401,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -512,6 +523,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-72D4-477D-8239-22E21F7B9324}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -612,6 +628,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-72D4-477D-8239-22E21F7B9324}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -762,7 +783,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -781,7 +808,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -856,6 +883,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -891,6 +935,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1066,14 +1127,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,7 +1181,9 @@
       <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
       <c r="C6" s="7">
         <v>1</v>
       </c>
@@ -1130,7 +1193,9 @@
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
       <c r="C7" s="7">
         <v>1</v>
       </c>
@@ -1140,7 +1205,9 @@
       <c r="A8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
       <c r="C8" s="7">
         <v>1</v>
       </c>
@@ -1150,7 +1217,9 @@
       <c r="A9" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
       <c r="C9" s="7">
         <v>2</v>
       </c>
@@ -1160,7 +1229,9 @@
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
       <c r="C10" s="7">
         <v>2</v>
       </c>
@@ -1170,7 +1241,9 @@
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="1"/>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
       <c r="C11" s="7">
         <v>1</v>
       </c>
@@ -1188,7 +1261,9 @@
       <c r="A14" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
@@ -1208,7 +1283,9 @@
       <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1">
+        <v>0.5</v>
+      </c>
       <c r="C16" s="7">
         <v>1</v>
       </c>
@@ -1338,7 +1415,7 @@
       </c>
       <c r="B33" s="5">
         <f>SUM(B6:B27)-SUM(B30:B32)</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="C33" s="5">
         <f>SUM(C6:C27)</f>
@@ -1356,7 +1433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1791,7 +1868,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="D8:D16">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D8:D16">
     <sortCondition ref="D8"/>
   </sortState>
   <dataConsolidate/>

--- a/Notenrechner Codereview SWE 2.xlsx
+++ b/Notenrechner Codereview SWE 2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E409084-6A9A-4ABC-9C71-F7448134FDA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAC67D6-6091-40E1-9E3E-03AB0CEC0639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1134,7 +1134,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1273,7 +1273,9 @@
       <c r="A15" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
       <c r="C15" s="7">
         <v>2</v>
       </c>
@@ -1415,7 +1417,7 @@
       </c>
       <c r="B33" s="5">
         <f>SUM(B6:B27)-SUM(B30:B32)</f>
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
       <c r="C33" s="5">
         <f>SUM(C6:C27)</f>

--- a/Notenrechner Codereview SWE 2.xlsx
+++ b/Notenrechner Codereview SWE 2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAC67D6-6091-40E1-9E3E-03AB0CEC0639}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18315BA-D532-484F-9081-6BA900CC3D45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1133,8 +1133,8 @@
   </sheetPr>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="117" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1286,7 +1286,7 @@
         <v>26</v>
       </c>
       <c r="B16" s="1">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
@@ -1297,7 +1297,9 @@
       <c r="A17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
       <c r="C17" s="7">
         <v>1</v>
       </c>
@@ -1307,7 +1309,9 @@
       <c r="A18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
       <c r="C18" s="7">
         <v>1</v>
       </c>
@@ -1325,7 +1329,9 @@
       <c r="A21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
       <c r="C21" s="7">
         <v>1</v>
       </c>
@@ -1335,7 +1341,9 @@
       <c r="A22" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
       <c r="C22" s="7">
         <v>1</v>
       </c>
@@ -1353,7 +1361,9 @@
       <c r="A25" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
       <c r="C25" s="7">
         <v>2</v>
       </c>
@@ -1363,7 +1373,9 @@
       <c r="A26" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1">
+        <v>0</v>
+      </c>
       <c r="C26" s="7">
         <v>1</v>
       </c>
@@ -1373,7 +1385,9 @@
       <c r="A27" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="1"/>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
       <c r="C27" s="7">
         <v>1</v>
       </c>
@@ -1417,7 +1431,7 @@
       </c>
       <c r="B33" s="5">
         <f>SUM(B6:B27)-SUM(B30:B32)</f>
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="C33" s="5">
         <f>SUM(C6:C27)</f>
